--- a/Datos/Database by set/Set with text box/Xlsx sets/Born of the Gods Hero's Path (THP2).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Born of the Gods Hero's Path (THP2).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,154 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Explorer</t>
+          <t>('The Explorer', ['Hero', 'You may play an additional land on each of your turns.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hero</t>
+          <t>('The General', ['Hero', 'Exile The General: Creatures you control get +1/+1 until end of turn. Untap them.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>You may play an additional land on each of your turns.</t>
+          <t>('The Provider', ['Hero', 'Exile The Provider: Put two +1/+1 counters on target creature you control. You gain life equal to that creature’s toughness.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The General</t>
+          <t>('The Savant', ['Hero', 'Exile The Savant: Tap all creatures your opponents control. Those creatures don’t untap during their controllers’ next untap steps.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hero</t>
+          <t>('The Tyrant', ['Hero', 'Exile The Tyrant: Creatures your opponents control get -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Exile The General: Creatures you control get +1/+1 until end of turn. Untap them.</t>
+          <t>('The Vanquisher', ['Hero', 'Your starting hand size is increased by one.', 'Your maximum hand size is increased by one.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Provider</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Exile The Provider: Put two +1/+1 counters on target creature you control. You gain life equal to that creature’s toughness.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Savant</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Exile The Savant: Tap all creatures your opponents control. Those creatures don’t untap during their controllers’ next untap steps.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>The Tyrant</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Exile The Tyrant: Creatures your opponents control get -1/-1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>The Vanquisher</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Your starting hand size is increased by one.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Your maximum hand size is increased by one.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The Warmonger</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Exile The Warmonger: Creatures you control get +2/+0 and gain haste until end of turn.</t>
+          <t>('The Warmonger', ['Hero', 'Exile The Warmonger: Creatures you control get +2/+0 and gain haste until end of turn.'])</t>
         </is>
       </c>
     </row>
